--- a/dmsan/bwaise/scores/parameters_annotated.xlsx
+++ b/dmsan/bwaise/scores/parameters_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{C43FC3B0-FD2F-4FBD-A89E-2816D91D7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4904AA16-DF2B-FD40-A894-B08352B60EB8}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C43FC3B0-FD2F-4FBD-A89E-2816D91D7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269F9380-F649-984F-81A6-BE72194490FB}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="500" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="580" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="5" r:id="rId1"/>
@@ -5477,10 +5477,10 @@
   <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="N92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
+      <selection pane="bottomRight" activeCell="S105" sqref="S105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24212,10 +24212,10 @@
   <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:P1048576"/>
+      <selection pane="bottomRight" activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/dmsan/bwaise/scores/parameters_annotated.xlsx
+++ b/dmsan/bwaise/scores/parameters_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{C43FC3B0-FD2F-4FBD-A89E-2816D91D7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269F9380-F649-984F-81A6-BE72194490FB}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C43FC3B0-FD2F-4FBD-A89E-2816D91D7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E17A14EE-EFE7-4D44-B9F2-DF9B95BDC4CF}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="580" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22260" yWindow="5820" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">B!$N$1:$P$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'C'!$N$1:$P$148</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5477,10 +5477,10 @@
   <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S105" sqref="S105"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15081,7 +15081,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24212,10 +24212,10 @@
   <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S44" sqref="S44"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/dmsan/bwaise/scores/parameters_annotated.xlsx
+++ b/dmsan/bwaise/scores/parameters_annotated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/ds/dmsan/bwaise/scores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/DMsan/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{C43FC3B0-FD2F-4FBD-A89E-2816D91D7110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E17A14EE-EFE7-4D44-B9F2-DF9B95BDC4CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC5E52-B7F6-B041-8F5F-153CAB6680D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22260" yWindow="5820" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34020" yWindow="1760" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">B!$N$1:$P$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'C'!$N$1:$P$148</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4793,7 +4793,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4848,6 +4848,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4925,7 +4930,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4983,6 +4988,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5477,10 +5485,10 @@
   <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12:T163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15078,10 +15086,10 @@
   <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="T166" sqref="T166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15090,7 +15098,6 @@
     <col min="2" max="2" width="88.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" style="2" customWidth="1"/>
     <col min="9" max="17" width="8.83203125" customWidth="1"/>
     <col min="18" max="18" width="64.83203125" customWidth="1"/>
@@ -15107,13 +15114,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -20851,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="2" t="b">
         <v>0</v>
@@ -20908,7 +20915,7 @@
         <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105" s="2" t="b">
         <v>0</v>
@@ -24212,19 +24219,17 @@
   <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="U149" sqref="U149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.83203125" style="2"/>
     <col min="4" max="4" width="8.83203125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="8.83203125" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" customWidth="1"/>
@@ -24236,7 +24241,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -24245,13 +24250,13 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -25786,7 +25791,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" t="s">
         <v>493</v>
       </c>
       <c r="C29" s="2" t="b">
@@ -25898,7 +25903,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" t="s">
         <v>304</v>
       </c>
       <c r="C31" s="2" t="b">
@@ -26601,7 +26606,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" t="s">
         <v>570</v>
       </c>
       <c r="C43" s="2" t="b">
@@ -26957,13 +26962,13 @@
       <c r="D49" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E49" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6" t="b">
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" s="18" t="b">
@@ -27015,13 +27020,13 @@
       <c r="D50" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="E50" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G50" s="6" t="b">
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" s="18" t="b">
@@ -27121,7 +27126,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" t="s">
         <v>293</v>
       </c>
       <c r="C52" s="2" t="b">
@@ -27779,7 +27784,7 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" t="s">
         <v>540</v>
       </c>
       <c r="C64" s="2" t="b">
@@ -27836,7 +27841,7 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" t="s">
         <v>541</v>
       </c>
       <c r="C65" s="2" t="b">
@@ -29276,7 +29281,7 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="28" t="s">
+      <c r="B91" t="s">
         <v>247</v>
       </c>
       <c r="C91" s="2" t="b">
@@ -29330,7 +29335,7 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="28" t="s">
+      <c r="B92" t="s">
         <v>248</v>
       </c>
       <c r="C92" s="2" t="b">

--- a/dmsan/bwaise/scores/parameters_annotated.xlsx
+++ b/dmsan/bwaise/scores/parameters_annotated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/torimorgan/Documents/GitHub/DMsan/dmsan/bwaise/scores/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC5E52-B7F6-B041-8F5F-153CAB6680D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70A6DE2-363A-6140-AFA7-7FC9E0C435BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34020" yWindow="1760" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34460" yWindow="720" windowWidth="28560" windowHeight="19460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="5" r:id="rId1"/>
@@ -4853,6 +4853,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5485,16 +5486,15 @@
   <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="P128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12:T163"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="S14:T160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="8.83203125" style="2" customWidth="1"/>
     <col min="9" max="10" width="8.83203125" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
@@ -5504,7 +5504,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -7143,7 +7143,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" t="s">
         <v>479</v>
       </c>
       <c r="C29" s="2" t="b">
@@ -7258,7 +7258,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="2" t="b">
@@ -7970,7 +7970,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="27" t="s">
+      <c r="B43" t="s">
         <v>565</v>
       </c>
       <c r="C43" s="2" t="b">
@@ -8382,7 +8382,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="2" t="b">
@@ -11580,7 +11580,7 @@
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="28" t="s">
+      <c r="B105" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="2" t="b">
@@ -11638,7 +11638,7 @@
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="28" t="s">
+      <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106" s="2" t="b">
@@ -15086,10 +15086,10 @@
   <dimension ref="A1:T162"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T166" sqref="T166"/>
+      <selection pane="bottomRight" activeCell="S157" sqref="S157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24219,10 +24219,10 @@
   <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L103" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U149" sqref="U149"/>
+      <selection pane="bottomRight" activeCell="S138" sqref="S138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
